--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3343479.533478512</v>
+        <v>3337757.921510626</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.88270951</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>109.4422623037129</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>264.1949060168083</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.4599045712066</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>105.9455272731795</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>166.1959795941946</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>113.0940561474153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>268.202183627916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>5.983388191319604</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>205.1332020905461</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.31590541686263</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9361527985597357</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>280.2914256361295</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,7 +1703,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
         <v>18.81721868247745</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.068815930272637</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>122.44245910773</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>196.6807119119782</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>13.8907283799707</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.04565350482905</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>137.2535816974946</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>249.8258836798064</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.41109096564211</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,19 +2769,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>27.69690030288077</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734080389</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0.6153783235518073</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734080389</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>93.50637905244071</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C37" t="n">
-        <v>11.70189172802169</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>159.1986785688855</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292603</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396203</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>55.04428069320121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>10.20389322926726</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1018.106519274536</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1781.711609511427</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1408.245851250347</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.106519274536</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="3">
@@ -4415,10 +4415,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2307.205093115898</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>2307.205093115898</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>2307.205093115898</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>2159.291999533505</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>2159.291999533505</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>2476.356511874692</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1470.569074795015</v>
+        <v>962.9693282917585</v>
       </c>
       <c r="C5" t="n">
-        <v>1470.569074795015</v>
+        <v>594.0068113513469</v>
       </c>
       <c r="D5" t="n">
-        <v>1470.569074795015</v>
+        <v>235.7411127445964</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>235.7411127445964</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
@@ -4570,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834949</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834949</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.168914859137</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.2080756496231</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005476</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.2080756496231</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.106519274536</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.01781586839</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4889,7 +4889,7 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4898,10 +4898,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036446</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1482364572798</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5044,31 +5044,31 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.197710791128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2368.748013620957</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5077,13 +5077,13 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
         <v>2760.816196754298</v>
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5120,40 +5120,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.8404695303064</v>
+        <v>952.9597618327374</v>
       </c>
       <c r="C13" t="n">
-        <v>392.8404695303064</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D13" t="n">
-        <v>242.7238301179707</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E13" t="n">
-        <v>242.7238301179707</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814702</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="V13" t="n">
-        <v>1131.039769608815</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="W13" t="n">
-        <v>841.6225995718539</v>
+        <v>1583.390356704524</v>
       </c>
       <c r="X13" t="n">
-        <v>613.6330486738366</v>
+        <v>1355.400805806507</v>
       </c>
       <c r="Y13" t="n">
-        <v>392.8404695303064</v>
+        <v>1134.608226662977</v>
       </c>
     </row>
     <row r="14">
@@ -5281,22 +5281,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>750.1800661608922</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M14" t="n">
-        <v>2782.232616025903</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N14" t="n">
-        <v>3329.011433084685</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3831.983903964022</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5308,16 +5308,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.7209910686896</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7848081407827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1453.060509258584</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>1163.643339221624</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>935.6537883236062</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>714.8612091800761</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,16 +5500,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5518,19 +5518,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2649.230460361821</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5545,22 +5545,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279158</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>681.2836032803235</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C19" t="n">
-        <v>512.3474203524166</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>512.3474203524166</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>388.668168728447</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W19" t="n">
-        <v>909.2731541783409</v>
+        <v>1033.308483745027</v>
       </c>
       <c r="X19" t="n">
-        <v>681.2836032803235</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y19" t="n">
-        <v>681.2836032803235</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,10 +5737,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5755,19 +5755,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>1897.67628410419</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330836</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107237</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5855,28 +5855,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.0874507179527</v>
+        <v>278.5282561439485</v>
       </c>
       <c r="C22" t="n">
-        <v>721.0874507179527</v>
+        <v>109.5920732160416</v>
       </c>
       <c r="D22" t="n">
-        <v>570.970811305617</v>
+        <v>109.5920732160416</v>
       </c>
       <c r="E22" t="n">
-        <v>423.0577177232238</v>
+        <v>109.5920732160416</v>
       </c>
       <c r="F22" t="n">
-        <v>276.1677702253135</v>
+        <v>109.5920732160416</v>
       </c>
       <c r="G22" t="n">
-        <v>276.1677702253135</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>129.9505834431712</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5940,22 +5940,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V22" t="n">
-        <v>1420.14263648317</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W22" t="n">
-        <v>1130.72546644621</v>
+        <v>908.9588510157357</v>
       </c>
       <c r="X22" t="n">
-        <v>902.7359155481925</v>
+        <v>680.9693001177184</v>
       </c>
       <c r="Y22" t="n">
-        <v>902.7359155481925</v>
+        <v>460.1767209741882</v>
       </c>
     </row>
     <row r="23">
@@ -5992,22 +5992,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>1923.729615463052</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>2903.481887689699</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
-        <v>3783.446538019154</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862918</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7264155301116</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1727.87302734961</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689057</v>
+        <v>1506.106411919136</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814701</v>
+        <v>1217.00354504478</v>
       </c>
       <c r="V25" t="n">
-        <v>1385.724257814701</v>
+        <v>962.3190568388932</v>
       </c>
       <c r="W25" t="n">
-        <v>1133.374880360351</v>
+        <v>672.9018868019325</v>
       </c>
       <c r="X25" t="n">
-        <v>1133.374880360351</v>
+        <v>444.9123359039152</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.374880360351</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001577</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,25 +6226,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074197</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427189</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196073</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867997</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3316.966490094644</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188665</v>
@@ -6253,25 +6253,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6320,19 +6320,19 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>656.6259356382594</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C28" t="n">
-        <v>487.6897527103525</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>487.6897527103525</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7766591279594</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384226</v>
+        <v>1425.083842285977</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783395</v>
+        <v>1170.39935408009</v>
       </c>
       <c r="W28" t="n">
-        <v>909.2731541783395</v>
+        <v>880.9821840431298</v>
       </c>
       <c r="X28" t="n">
-        <v>681.2836032803222</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="Y28" t="n">
-        <v>681.2836032803222</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277727</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>785.665188117619</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.447785386688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2317.998088216516</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3297.750360443162</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.722831322499</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679677</v>
@@ -6490,22 +6490,22 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
         <v>2760.816196754296</v>
@@ -6518,64 +6518,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193586</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
         <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902951</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.10246054955</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.0030950818858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839441</v>
@@ -6621,13 +6621,13 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384226</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783395</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>909.2731541783395</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>908.6515599121255</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.6515599121255</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6694,31 +6694,31 @@
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074197</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972659</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345674</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2047.844055175503</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N32" t="n">
-        <v>3027.596327402149</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O32" t="n">
-        <v>3907.560977731603</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188665</v>
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902951</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.10246054955</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1067.200392807384</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>898.2642098794768</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>748.147570467141</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862231</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1866.513008862231</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1577.410141987874</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1577.410141987874</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1287.992971950914</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1287.992971950914</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1067.200392807384</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074197</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>625.8141267662592</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1076.848340014668</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M35" t="n">
-        <v>2055.398642844496</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903278</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6964,25 +6964,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,25 +7016,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902951</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3520.226250692761</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>3508.406158038194</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>3358.289518625858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>3210.376425043465</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>3063.486477545555</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>3063.486477545555</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>4688.221265177249</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>4466.454649746775</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>4177.351782872418</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>3922.667294666531</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>3922.667294666531</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>3922.667294666531</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>3701.874715523001</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="38">
@@ -7153,43 +7153,43 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1339.447785386687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2317.998088216516</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7204,16 +7204,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.5107908505465</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>707.5107908505465</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7362,22 +7362,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1514.020378659881</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.917511785525</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1224.917511785525</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>935.5003417485639</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X40" t="n">
-        <v>707.5107908505465</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>707.5107908505465</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7417,40 +7417,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3931.363334276589</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7493,10 +7493,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7505,25 +7505,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>470.2141403171231</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>301.2779573892162</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>151.1613179768805</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>151.1613179768805</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>151.1613179768805</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>151.1613179768805</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1644.746393431758</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1390.061905225871</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1100.64473518891</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>872.655184290893</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>651.8626051473628</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7627,67 +7627,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>932.5990189467722</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1797.117834600127</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2330.649739272052</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330834</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.393206660289</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7733,46 +7733,46 @@
         <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>719.7238607267863</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>550.7876777988794</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>400.6710383865436</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>252.7579448041505</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>105.8679973062401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7809,16 +7809,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1445.473983799874</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1190.789495593987</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>901.372325557026</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>901.372325557026</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>901.372325557026</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,25 +8695,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>64.28566532692525</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>258.6211785616945</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400263</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8938,16 +8938,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>34.13957882094024</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>315.167921710932</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,22 +9403,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>297.8289162490814</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616945</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.1140909277304</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9655,10 +9655,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>83.16722118949338</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>192.9047586887117</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>103.7862464855153</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.83833503974995e-12</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>132.9990175570116</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>104.3976710547493</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.83833503974995e-12</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>7.63089663534663</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>272.8828616575882</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>80.35488666587537</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>148.4180109385379</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>144.4848952243715</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>6.23157270046147</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>172.7631642516646</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>23.99150353883921</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>29.02894347705893</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>152.1350798790575</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>62.30676690500907</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>52.51544363394731</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>36.69711465678461</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.4208892162952</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>258.5149379027321</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.0942770654854</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>52.92758359412846</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C37" t="n">
-        <v>155.5449293706062</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>60.35027070728373</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>89.71073422111957</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>155.821915029761</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712248.7054417304</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712248.7054417304</v>
+        <v>712248.7054417307</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>694893.1270522206</v>
+        <v>694893.1270522201</v>
       </c>
       <c r="F2" t="n">
-        <v>694893.127052221</v>
+        <v>694893.1270522204</v>
       </c>
       <c r="G2" t="n">
         <v>694893.1270522207</v>
       </c>
       <c r="H2" t="n">
+        <v>694893.1270522204</v>
+      </c>
+      <c r="I2" t="n">
         <v>694893.1270522205</v>
       </c>
-      <c r="I2" t="n">
-        <v>694893.1270522204</v>
-      </c>
       <c r="J2" t="n">
-        <v>694893.1270522207</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="K2" t="n">
         <v>694893.1270522206</v>
       </c>
       <c r="L2" t="n">
-        <v>694893.1270522207</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="M2" t="n">
-        <v>694893.1270522206</v>
+        <v>694893.1270522209</v>
       </c>
       <c r="N2" t="n">
+        <v>694893.1270522209</v>
+      </c>
+      <c r="O2" t="n">
         <v>694893.1270522205</v>
       </c>
-      <c r="O2" t="n">
-        <v>694893.1270522206</v>
-      </c>
       <c r="P2" t="n">
-        <v>694893.1270522202</v>
+        <v>694893.1270522205</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,13 +26401,13 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="N4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="P4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.49231918989</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18148.49231918991</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26493,22 +26493,22 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-137764.0955038339</v>
+        <v>-137764.095503834</v>
       </c>
       <c r="C6" t="n">
-        <v>452203.7837107105</v>
+        <v>452203.7837107104</v>
       </c>
       <c r="D6" t="n">
         <v>452203.7837107103</v>
       </c>
       <c r="E6" t="n">
-        <v>-147016.2975140895</v>
+        <v>-147688.2524163478</v>
       </c>
       <c r="F6" t="n">
-        <v>580361.1164793174</v>
+        <v>579689.161577059</v>
       </c>
       <c r="G6" t="n">
-        <v>580361.1164793172</v>
+        <v>579689.1615770593</v>
       </c>
       <c r="H6" t="n">
-        <v>580361.1164793171</v>
+        <v>579689.161577059</v>
       </c>
       <c r="I6" t="n">
-        <v>580361.1164793168</v>
+        <v>579689.1615770591</v>
       </c>
       <c r="J6" t="n">
-        <v>403937.8972867244</v>
+        <v>403265.942384466</v>
       </c>
       <c r="K6" t="n">
-        <v>580361.1164793171</v>
+        <v>579689.1615770592</v>
       </c>
       <c r="L6" t="n">
-        <v>580361.1164793172</v>
+        <v>579689.1615770592</v>
       </c>
       <c r="M6" t="n">
-        <v>450718.8016403723</v>
+        <v>450046.8467381145</v>
       </c>
       <c r="N6" t="n">
-        <v>580361.1164793166</v>
+        <v>579689.1615770594</v>
       </c>
       <c r="O6" t="n">
-        <v>580361.1164793172</v>
+        <v>579689.1615770591</v>
       </c>
       <c r="P6" t="n">
-        <v>580361.1164793165</v>
+        <v>579689.1615770591</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762113</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>245.24077931697</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>85.04606270060469</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.37207561073072</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>275.9848427990822</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>240.6800661475169</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>105.4905972046795</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>114.5316580355646</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>168.4323246176519</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>20.576453298491</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352322</v>
       </c>
     </row>
     <row r="11">
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32794,7 +32794,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987504</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33991,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34783,13 +34783,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>616.5875007398367</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>766.6741794499135</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>470.4443441954267</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>432.9015650403121</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>854.0890375411587</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>836.750032079308</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>766.6741794499135</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037194</v>
@@ -36360,13 +36360,13 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200623</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248955</v>
@@ -36375,10 +36375,10 @@
         <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>481.929207408865</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36442,7 +36442,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687124</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.336699126565</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427823</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248953</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>700.9577595769306</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193715</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037193</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152071</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407862</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554003</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>559.3763608778471</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230589</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248953</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882189</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193715</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.109295463624</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152071</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554003</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230589</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248953</v>
+        <v>685.3008529699231</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509642</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>503.1596572741208</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037193</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152071</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687124</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>344.8221831907469</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923318</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230589</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509642</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.109295463624</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152071</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127288</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>728.4729760499204</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37785,7 +37785,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37794,13 +37794,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>479.1168728852472</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>485.6092974939385</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3337757.921510626</v>
+        <v>3341163.412635075</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095091</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>109.4422623037129</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>30.04225112093034</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>166.1959795941946</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.46389722690856</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5.983388191319604</v>
+        <v>15.14483238681376</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>78.53455727340419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>280.2914256361295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>173.626889274475</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>143.9764333632482</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>200.5864956139556</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>196.6807119119782</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>13.8907283799707</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>137.2535816974946</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0.9274752779000937</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>27.69690030288077</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>12.38867521109711</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>120.6353666620239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>84.69473660442847</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>67.72502952809073</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554.3221432721089</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C2" t="n">
-        <v>185.3596263316971</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
         <v>67.86638588177355</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2666.803382815262</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2666.803382815262</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2666.803382815262</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2666.803382815262</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2335.740495471692</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1982.971840201577</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1609.506081940498</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4415,10 +4415,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
         <v>667.8624625746712</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.9693282917585</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>594.0068113513469</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>235.7411127445964</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>235.7411127445964</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592772</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.5189870075369</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>713.5189870075369</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952011</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2636.076575092838</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="T8" t="n">
-        <v>2636.076575092838</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4947,22 +4947,22 @@
         <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,31 +4980,31 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
         <v>702.55736257324</v>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,49 +5026,49 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867998</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3316.966490094645</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5086,7 +5086,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.9597618327374</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="C13" t="n">
-        <v>784.0235789048305</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D13" t="n">
-        <v>633.9069394924948</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862231</v>
+        <v>1877.015630475003</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862231</v>
+        <v>1877.015630475003</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.513008862231</v>
+        <v>1587.912763600646</v>
       </c>
       <c r="V13" t="n">
-        <v>1866.513008862231</v>
+        <v>1333.228275394759</v>
       </c>
       <c r="W13" t="n">
-        <v>1583.390356704524</v>
+        <v>1043.811105357798</v>
       </c>
       <c r="X13" t="n">
-        <v>1355.400805806507</v>
+        <v>815.8215544597811</v>
       </c>
       <c r="Y13" t="n">
-        <v>1134.608226662977</v>
+        <v>595.0289753162509</v>
       </c>
     </row>
     <row r="14">
@@ -5254,58 +5254,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>750.1800661608922</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1614.698881814247</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331037</v>
@@ -5314,16 +5314,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,16 +5375,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>414.613856788637</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1589.146109903272</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1334.461621697385</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>1045.044451660424</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.2000540015823</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C19" t="n">
         <v>263.2638710736754</v>
@@ -5664,19 +5664,19 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1577.410141987875</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.725653781988</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W19" t="n">
-        <v>1033.308483745027</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X19" t="n">
-        <v>834.6410979753522</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y19" t="n">
-        <v>613.848518831822</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5749,40 +5749,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867998</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>278.5282561439485</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>109.5920732160416</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>109.5920732160416</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>109.5920732160416</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>109.5920732160416</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1453.060509258583</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1198.376021052696</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>908.9588510157357</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>680.9693001177184</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>460.1767209741882</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5995,13 +5995,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1727.87302734961</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1506.106411919136</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1217.00354504478</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>962.3190568388932</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>672.9018868019325</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>444.9123359039152</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9123359039152</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
@@ -6232,31 +6232,31 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.2000540015823</v>
+        <v>361.822894557956</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1865.576165147181</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1643.809549716707</v>
       </c>
       <c r="U28" t="n">
-        <v>1425.083842285977</v>
+        <v>1354.706682842351</v>
       </c>
       <c r="V28" t="n">
-        <v>1170.39935408009</v>
+        <v>1100.022194636464</v>
       </c>
       <c r="W28" t="n">
-        <v>880.9821840431298</v>
+        <v>810.6050245995034</v>
       </c>
       <c r="X28" t="n">
-        <v>652.9926331451124</v>
+        <v>582.6154737014861</v>
       </c>
       <c r="Y28" t="n">
-        <v>432.2000540015823</v>
+        <v>361.822894557956</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6478,37 +6478,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,64 +6518,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>402.8778888732404</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>402.8778888732404</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>584.5263537034801</v>
       </c>
     </row>
     <row r="32">
@@ -6691,46 +6691,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>1923.729615463053</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6916,19 +6916,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6943,13 +6943,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,7 +7046,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7055,7 +7055,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7125,22 +7125,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,7 +7159,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7171,7 +7171,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
@@ -7189,19 +7189,19 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
         <v>4461.783306331037</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,22 +7356,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
         <v>498.0020784221642</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7408,7 +7408,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,16 +7520,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,16 +7745,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>613.848518831822</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,19 +8692,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>258.6211785616945</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>133.2530576400263</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,13 +9178,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>169.5026663584964</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>258.6211785616945</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277304</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>132.9990175570116</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>374.1693948021941</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>111.2344680580377</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>6.23157270046147</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>51.55114770987242</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>29.02894347705893</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>152.1350798790575</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>91.26811680410417</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>52.51544363394731</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>188.8415500535418</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>258.5149379027321</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>136.2267978071152</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>218.7979688085003</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712248.7054417306</v>
+        <v>712248.7054417307</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712248.7054417307</v>
+        <v>712248.7054417306</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>694893.1270522201</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="F2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="G2" t="n">
+        <v>694893.1270522203</v>
+      </c>
+      <c r="H2" t="n">
+        <v>694893.1270522206</v>
+      </c>
+      <c r="I2" t="n">
         <v>694893.1270522204</v>
       </c>
-      <c r="G2" t="n">
-        <v>694893.1270522207</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>694893.1270522204</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>694893.1270522205</v>
-      </c>
-      <c r="J2" t="n">
-        <v>694893.1270522206</v>
-      </c>
-      <c r="K2" t="n">
-        <v>694893.1270522206</v>
       </c>
       <c r="L2" t="n">
         <v>694893.1270522206</v>
       </c>
       <c r="M2" t="n">
-        <v>694893.1270522209</v>
+        <v>694893.1270522205</v>
       </c>
       <c r="N2" t="n">
-        <v>694893.1270522209</v>
+        <v>694893.1270522207</v>
       </c>
       <c r="O2" t="n">
-        <v>694893.1270522205</v>
+        <v>694893.1270522204</v>
       </c>
       <c r="P2" t="n">
-        <v>694893.1270522205</v>
+        <v>694893.1270522207</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934063</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="J4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="K4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="O4" t="n">
         <v>18148.49231918993</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26493,25 +26493,25 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-137764.095503834</v>
+        <v>-137764.0955038338</v>
       </c>
       <c r="C6" t="n">
+        <v>452203.7837107108</v>
+      </c>
+      <c r="D6" t="n">
         <v>452203.7837107104</v>
       </c>
-      <c r="D6" t="n">
-        <v>452203.7837107103</v>
-      </c>
       <c r="E6" t="n">
-        <v>-147688.2524163478</v>
+        <v>-147083.4930043153</v>
       </c>
       <c r="F6" t="n">
-        <v>579689.161577059</v>
+        <v>580293.9209890913</v>
       </c>
       <c r="G6" t="n">
-        <v>579689.1615770593</v>
+        <v>580293.9209890909</v>
       </c>
       <c r="H6" t="n">
-        <v>579689.161577059</v>
+        <v>580293.9209890913</v>
       </c>
       <c r="I6" t="n">
-        <v>579689.1615770591</v>
+        <v>580293.920989091</v>
       </c>
       <c r="J6" t="n">
-        <v>403265.942384466</v>
+        <v>403870.701796498</v>
       </c>
       <c r="K6" t="n">
-        <v>579689.1615770592</v>
+        <v>580293.9209890912</v>
       </c>
       <c r="L6" t="n">
-        <v>579689.1615770592</v>
+        <v>580293.9209890913</v>
       </c>
       <c r="M6" t="n">
-        <v>450046.8467381145</v>
+        <v>450651.6061501464</v>
       </c>
       <c r="N6" t="n">
-        <v>579689.1615770594</v>
+        <v>580293.9209890914</v>
       </c>
       <c r="O6" t="n">
-        <v>579689.1615770591</v>
+        <v>580293.920989091</v>
       </c>
       <c r="P6" t="n">
-        <v>579689.1615770591</v>
+        <v>580293.9209890914</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762113</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>245.24077931697</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>24.43615145388139</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>240.6800661475169</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>48.19472341080782</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.65885272800574</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>168.4323246176519</v>
+        <v>159.2708804221577</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>3.806844538051777</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352322</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33754,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33991,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34783,19 +34783,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>766.6741794499135</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>470.4443441954267</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.306058528246</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>568.2646525778682</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>766.6741794499135</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200623</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36609,7 +36609,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37071,28 +37071,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>685.3008529699231</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38031,16 +38031,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>882.2223956904132</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
